--- a/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
+++ b/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Documents\Curso do Romão\Pesquisa-inovacao-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C640469-C340-43BE-A1EB-A27F11F06572}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C8633-87B8-49D0-BC81-3E6DC0BB53D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Descrição</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Realizar Conexão com Arduino UNO.</t>
+  </si>
+  <si>
+    <t>Realizar</t>
   </si>
 </sst>
 </file>
@@ -247,17 +250,20 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,19 +271,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +608,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,422 +622,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>2</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
@@ -1044,15 +1080,12 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
+++ b/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C8633-87B8-49D0-BC81-3E6DC0BB53D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FE8E6-AE16-48D6-BE39-8C28B2226091}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,16 +265,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -607,7 +607,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -639,13 +639,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -656,9 +656,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
@@ -667,9 +667,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
@@ -678,9 +678,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,9 +689,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,9 +700,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -711,13 +711,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -728,9 +728,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
@@ -739,9 +739,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
@@ -750,9 +750,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
@@ -761,9 +761,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
@@ -772,13 +772,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -789,9 +789,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
@@ -800,9 +800,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -811,9 +811,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
@@ -822,13 +822,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -839,9 +839,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
@@ -850,9 +850,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -861,9 +861,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
@@ -872,13 +872,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -889,9 +889,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
@@ -900,9 +900,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
@@ -911,9 +911,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
@@ -922,13 +922,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -939,9 +939,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
@@ -950,9 +950,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
@@ -961,9 +961,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
@@ -972,13 +972,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>7</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -989,9 +989,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1000,9 +1000,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1062,6 +1062,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
@@ -1071,21 +1086,6 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
+++ b/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FE8E6-AE16-48D6-BE39-8C28B2226091}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -138,9 +137,6 @@
     <t>Coletar dados da Nuvem.</t>
   </si>
   <si>
-    <t>Exibir Alertas no Sistema.</t>
-  </si>
-  <si>
     <t>Exibir Relatórios no Sistema.</t>
   </si>
   <si>
@@ -166,12 +162,15 @@
   </si>
   <si>
     <t>Realizar</t>
+  </si>
+  <si>
+    <t>Exibir Alertas do Sistema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,16 +264,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -601,14 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,13 +638,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -656,9 +655,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
@@ -667,9 +666,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
@@ -678,9 +677,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,9 +688,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,9 +699,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -711,13 +710,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -728,9 +727,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
@@ -739,31 +738,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
@@ -772,13 +771,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -789,9 +788,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
@@ -800,59 +799,59 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -861,74 +860,74 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="6">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -939,20 +938,20 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
@@ -961,24 +960,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="8">
         <v>7</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -989,25 +988,25 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,7 +1023,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,12 +1061,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
@@ -1077,15 +1079,12 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
+++ b/Projeto-Documentacao/Planilhas/Sprint_Backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90736594-D450-4DD8-9355-04A2AE42A42B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -170,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +199,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,22 +273,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,21 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
@@ -638,13 +653,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -655,9 +670,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
@@ -666,9 +681,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
@@ -677,9 +692,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -688,9 +703,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -699,9 +714,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -710,13 +725,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -727,9 +742,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
@@ -738,9 +753,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
@@ -749,9 +764,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
@@ -760,9 +775,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
@@ -771,13 +786,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -788,9 +803,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
@@ -799,9 +814,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -810,9 +825,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
@@ -821,13 +836,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -838,9 +853,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
@@ -849,9 +864,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -860,9 +875,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
@@ -871,13 +886,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -888,9 +903,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
@@ -899,9 +914,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
@@ -910,9 +925,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
@@ -921,13 +936,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -938,9 +953,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
@@ -949,9 +964,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
@@ -960,9 +975,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
@@ -971,13 +986,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>7</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -988,9 +1003,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
@@ -999,9 +1014,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1061,6 +1076,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
@@ -1070,21 +1100,6 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
